--- a/output/risk/BRN_osm_tc_risk.xlsx
+++ b/output/risk/BRN_osm_tc_risk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,109 +434,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>W2_1_1</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>W2_1_2</t>
+          <t>_CMCC-CM2-VHR4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>W2_1_3</t>
+          <t>_CNRM-CM6-1-HR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>W2_2_1</t>
+          <t>_EC-Earth3P-HR</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>W2_2_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>W2_2_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>W2_3_1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W2_3_2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>W2_3_3</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W2_4_1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W2_4_2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>W2_4_3</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W2_5_1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>W2_5_2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W2_5_3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W2_6_1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W2_6_2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>W2_6_3</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W2_7_1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W2_7_2</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>W2_7_3</t>
+          <t>_HadGEM3-GC31-HM</t>
         </is>
       </c>
     </row>
@@ -547,67 +463,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.308199929936335e-08</v>
+        <v>170556.6280779302</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261639985987267e-07</v>
+        <v>169519.5717820055</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154099964968168e-07</v>
+        <v>173071.1272186269</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853343590049637e-13</v>
+        <v>168483.8708149627</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570668718009927e-12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.926671795024819e-12</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.915233501568305e-13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.183046700313661e-12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.957616750784153e-12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.597639316848511e-12</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.195278633697021e-12</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.798819658424256e-11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.005889426806872e-13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8.011778853613743e-13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.002944713403437e-12</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>269248.2975980715</v>
-      </c>
-      <c r="R2" t="n">
-        <v>538496.5951961429</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1346241.487990358</v>
-      </c>
-      <c r="T2" t="n">
-        <v>194230.7795752701</v>
-      </c>
-      <c r="U2" t="n">
-        <v>388461.5591505402</v>
-      </c>
-      <c r="V2" t="n">
-        <v>971153.8978763504</v>
+        <v>169359.1162591724</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +485,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.731149947452252e-08</v>
+        <v>127917.4710584476</v>
       </c>
       <c r="C3" t="n">
-        <v>9.462299894904505e-08</v>
+        <v>127139.6788365041</v>
       </c>
       <c r="D3" t="n">
-        <v>2.365574973726126e-07</v>
+        <v>129803.3454139702</v>
       </c>
       <c r="E3" t="n">
-        <v>5.890007692537229e-13</v>
+        <v>126362.903111222</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178001538507446e-12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.945003846268614e-12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.436425126176229e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.872850252352458e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.218212563088114e-12</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.698229487636384e-12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.396458975272768e-12</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.349114743818192e-11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.004417070105154e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.008834140210308e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.502208535052577e-12</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>201936.2231985536</v>
-      </c>
-      <c r="R3" t="n">
-        <v>403872.4463971073</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1009681.115992768</v>
-      </c>
-      <c r="T3" t="n">
-        <v>145673.0846814526</v>
-      </c>
-      <c r="U3" t="n">
-        <v>291346.1693629051</v>
-      </c>
-      <c r="V3" t="n">
-        <v>728365.4234072629</v>
+        <v>127019.3371943793</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +507,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885249912420421e-08</v>
+        <v>213195.7850974128</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577049982484084e-07</v>
+        <v>211899.4647275069</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94262495621021e-07</v>
+        <v>216338.9090232837</v>
       </c>
       <c r="E4" t="n">
-        <v>9.816679487562047e-13</v>
+        <v>210604.8385187033</v>
       </c>
       <c r="F4" t="n">
-        <v>1.963335897512409e-12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.908339743781024e-12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.394041876960383e-13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.478808375392077e-12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.697020938480192e-12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.49704914606064e-12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.994098292121279e-12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.24852457303032e-11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.007361783508591e-13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.001472356701718e-12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.503680891754295e-12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>336560.3719975894</v>
-      </c>
-      <c r="R4" t="n">
-        <v>673120.7439951788</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1682801.859987947</v>
-      </c>
-      <c r="T4" t="n">
-        <v>242788.4744690876</v>
-      </c>
-      <c r="U4" t="n">
-        <v>485576.9489381752</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1213942.372345438</v>
+        <v>211698.8953239655</v>
       </c>
     </row>
   </sheetData>
